--- a/WEB289-Final/timesheet.xlsx
+++ b/WEB289-Final/timesheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william\Desktop\WEB289\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william\Desktop\WEB289\WEB289-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="560" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,45 @@
   </si>
   <si>
     <t>Finalize database and ERD to turn in on 2/4</t>
+  </si>
+  <si>
+    <t>Source code and begin working on design of website</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
+  </si>
+  <si>
+    <t>Continue work on website design for coding workability</t>
+  </si>
+  <si>
+    <t>Rework and rebuild database</t>
+  </si>
+  <si>
+    <t>Work on reworking databaase and formulating SQL script</t>
+  </si>
+  <si>
+    <t>work on working model to pull data from database</t>
+  </si>
+  <si>
+    <t>get working demo working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on login </t>
+  </si>
+  <si>
+    <t>work on login</t>
+  </si>
+  <si>
+    <t>work on site redirection</t>
+  </si>
+  <si>
+    <t>complete site redirection, continue work on login</t>
+  </si>
+  <si>
+    <t>work on login and search</t>
   </si>
 </sst>
 </file>
@@ -193,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +260,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +738,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +803,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +868,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +933,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +998,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1063,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1162,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1439,7 +1479,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1465,13 +1505,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40947</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40948</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40949</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,7 +1571,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 4'!E21</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1595,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,13 +1621,81 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40951</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40952</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40954</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>40956</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1545,7 +1704,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1728,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1595,13 +1754,81 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40958</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40959</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40960</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>40961</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,7 +1837,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1633,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1660,13 +1887,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>40965</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>40966</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>40967</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,7 +1953,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2018,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
